--- a/cypress/Excels/Insurance information.xlsx
+++ b/cypress/Excels/Insurance information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Self</t>
   </si>
   <si>
-    <t>pradeep</t>
-  </si>
-  <si>
     <t>sandesh</t>
   </si>
   <si>
@@ -56,6 +53,21 @@
   </si>
   <si>
     <t>fjfh</t>
+  </si>
+  <si>
+    <t>karthik sherigar</t>
+  </si>
+  <si>
+    <t>fhfj</t>
+  </si>
+  <si>
+    <t>lic</t>
+  </si>
+  <si>
+    <t>fgg</t>
+  </si>
+  <si>
+    <t>ESIC</t>
   </si>
 </sst>
 </file>
@@ -415,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -473,13 +485,41 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>4563</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/Excels/Insurance information.xlsx
+++ b/cypress/Excels/Insurance information.xlsx
@@ -115,13 +115,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,15 +466,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -495,9 +495,6 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>123456</v>
-      </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>

--- a/cypress/Excels/Insurance information.xlsx
+++ b/cypress/Excels/Insurance information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -55,9 +55,6 @@
     <t>fjfh</t>
   </si>
   <si>
-    <t>karthik sherigar</t>
-  </si>
-  <si>
     <t>fhfj</t>
   </si>
   <si>
@@ -68,6 +65,12 @@
   </si>
   <si>
     <t>ESIC</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>Corporate</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,12 +469,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -490,19 +493,22 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -510,10 +516,10 @@
         <v>4563</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>

--- a/cypress/Excels/Insurance information.xlsx
+++ b/cypress/Excels/Insurance information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>ESIC</t>
-  </si>
-  <si>
-    <t>ravi</t>
   </si>
   <si>
     <t>Corporate</t>
@@ -436,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -494,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>

--- a/cypress/Excels/Insurance information.xlsx
+++ b/cypress/Excels/Insurance information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>karthik.s@pococare.com</t>
-  </si>
-  <si>
     <t>Policyid</t>
   </si>
   <si>
@@ -68,13 +65,19 @@
   </si>
   <si>
     <t>Corporate</t>
+  </si>
+  <si>
+    <t>playstoretest@pococare.com</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +97,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,10 +123,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -126,8 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,7 +447,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,58 +468,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -513,17 +527,20 @@
         <v>4563</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>